--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H2">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N2">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O2">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P2">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q2">
-        <v>18.769653061995</v>
+        <v>43.54357484880875</v>
       </c>
       <c r="R2">
-        <v>75.07861224797999</v>
+        <v>174.174299395235</v>
       </c>
       <c r="S2">
-        <v>0.000288372956287817</v>
+        <v>0.0008266761896349449</v>
       </c>
       <c r="T2">
-        <v>0.0001379990989939475</v>
+        <v>0.0003967894225524897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H3">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I3">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J3">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P3">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q3">
-        <v>106.28959230518</v>
+        <v>92.64109447066001</v>
       </c>
       <c r="R3">
-        <v>637.7375538310799</v>
+        <v>555.84656682396</v>
       </c>
       <c r="S3">
-        <v>0.001633010682426205</v>
+        <v>0.001758794202050026</v>
       </c>
       <c r="T3">
-        <v>0.00117220077979879</v>
+        <v>0.001266283481797641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H4">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I4">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J4">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N4">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O4">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P4">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q4">
-        <v>54.32998824756667</v>
+        <v>108.953518642543</v>
       </c>
       <c r="R4">
-        <v>325.9799294854</v>
+        <v>653.7211118552581</v>
       </c>
       <c r="S4">
-        <v>0.0008347143804035715</v>
+        <v>0.00206848610734131</v>
       </c>
       <c r="T4">
-        <v>0.0005991711249338664</v>
+        <v>0.001489253141158412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H5">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I5">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J5">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N5">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O5">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P5">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q5">
-        <v>45.1464721126045</v>
+        <v>57.59752549077026</v>
       </c>
       <c r="R5">
-        <v>180.585888450418</v>
+        <v>230.390101963081</v>
       </c>
       <c r="S5">
-        <v>0.0006936207923543511</v>
+        <v>0.001093490901250938</v>
       </c>
       <c r="T5">
-        <v>0.0003319279505975377</v>
+        <v>0.000524855594867638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H6">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I6">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J6">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N6">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O6">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P6">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q6">
-        <v>17.8291447575935</v>
+        <v>139.59612404546</v>
       </c>
       <c r="R6">
-        <v>106.974868545561</v>
+        <v>837.57674427276</v>
       </c>
       <c r="S6">
-        <v>0.0002739231867977956</v>
+        <v>0.002650236970997458</v>
       </c>
       <c r="T6">
-        <v>0.000196626376437593</v>
+        <v>0.001908097772503369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H7">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I7">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J7">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N7">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O7">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P7">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q7">
-        <v>70.99059272088451</v>
+        <v>46.35876816971466</v>
       </c>
       <c r="R7">
-        <v>425.943556325307</v>
+        <v>278.152609018288</v>
       </c>
       <c r="S7">
-        <v>0.001090684362887735</v>
+        <v>0.0008801227267117214</v>
       </c>
       <c r="T7">
-        <v>0.0007829104086397332</v>
+        <v>0.0006336641714481003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J8">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N8">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O8">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P8">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q8">
-        <v>2.65517793211</v>
+        <v>7.067218677105832</v>
       </c>
       <c r="R8">
-        <v>15.93106759266</v>
+        <v>42.403312062635</v>
       </c>
       <c r="S8">
-        <v>4.079358884384994E-05</v>
+        <v>0.0001341713772374524</v>
       </c>
       <c r="T8">
-        <v>2.928228037216959E-05</v>
+        <v>9.659970366504174E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J9">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P9">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q9">
         <v>15.03585489670666</v>
@@ -1013,10 +1013,10 @@
         <v>135.32269407036</v>
       </c>
       <c r="S9">
-        <v>0.0002310076756643625</v>
+        <v>0.0002854561959387091</v>
       </c>
       <c r="T9">
-        <v>0.0002487314202540514</v>
+        <v>0.0003082809221846327</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J10">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N10">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O10">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P10">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q10">
-        <v>7.685586162422221</v>
+        <v>17.68339748310867</v>
       </c>
       <c r="R10">
-        <v>69.17027546179999</v>
+        <v>159.150577347978</v>
       </c>
       <c r="S10">
-        <v>0.000118079710644735</v>
+        <v>0.0003357198783493168</v>
       </c>
       <c r="T10">
-        <v>0.0001271392132204518</v>
+        <v>0.0003625636268040998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J11">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N11">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O11">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P11">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q11">
-        <v>6.386474809634333</v>
+        <v>9.348206005520167</v>
       </c>
       <c r="R11">
-        <v>38.318848857806</v>
+        <v>56.089236033121</v>
       </c>
       <c r="S11">
-        <v>9.812044021426228E-05</v>
+        <v>0.0001774759961119117</v>
       </c>
       <c r="T11">
-        <v>7.04323969041497E-05</v>
+        <v>0.0001277778389479271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J12">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N12">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O12">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P12">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q12">
-        <v>2.522132484409667</v>
+        <v>22.65676023457333</v>
       </c>
       <c r="R12">
-        <v>22.699192359687</v>
+        <v>203.91084211116</v>
       </c>
       <c r="S12">
-        <v>3.87495068916019E-05</v>
+        <v>0.0004301393325013604</v>
       </c>
       <c r="T12">
-        <v>4.172250924378777E-05</v>
+        <v>0.0004645327443509875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J13">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N13">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O13">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P13">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q13">
-        <v>10.042415518141</v>
+        <v>7.524130790689776</v>
       </c>
       <c r="R13">
-        <v>90.381739663269</v>
+        <v>67.71717711620799</v>
       </c>
       <c r="S13">
-        <v>0.0001542895354363658</v>
+        <v>0.0001428458686260702</v>
       </c>
       <c r="T13">
-        <v>0.000166127186765792</v>
+        <v>0.0001542676485458562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H14">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I14">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J14">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N14">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O14">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P14">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q14">
-        <v>1584.93572359375</v>
+        <v>1405.14428589366</v>
       </c>
       <c r="R14">
-        <v>9509.614341562499</v>
+        <v>8430.865715361959</v>
       </c>
       <c r="S14">
-        <v>0.02435061525267854</v>
+        <v>0.0266767101273419</v>
       </c>
       <c r="T14">
-        <v>0.01747925503179308</v>
+        <v>0.01920649803347263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H15">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I15">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J15">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.99588</v>
       </c>
       <c r="O15">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P15">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q15">
-        <v>8975.241648541667</v>
+        <v>2989.513492779839</v>
       </c>
       <c r="R15">
-        <v>80777.174836875</v>
+        <v>26905.62143501855</v>
       </c>
       <c r="S15">
-        <v>0.1378937031515063</v>
+        <v>0.05675601122908502</v>
       </c>
       <c r="T15">
-        <v>0.1484734069131017</v>
+        <v>0.06129415206310838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H16">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I16">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J16">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N16">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O16">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P16">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q16">
-        <v>4587.700100347222</v>
+        <v>3515.912845469232</v>
       </c>
       <c r="R16">
-        <v>41289.300903125</v>
+        <v>31643.21560922308</v>
       </c>
       <c r="S16">
-        <v>0.07048444828092239</v>
+        <v>0.06674972011997259</v>
       </c>
       <c r="T16">
-        <v>0.07589227014347931</v>
+        <v>0.0720869456221912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H17">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I17">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J17">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N17">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O17">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P17">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q17">
-        <v>3812.231169598958</v>
+        <v>1858.663054330836</v>
       </c>
       <c r="R17">
-        <v>22873.38701759375</v>
+        <v>11151.97832598502</v>
       </c>
       <c r="S17">
-        <v>0.05857030861458905</v>
+        <v>0.03528677874759976</v>
       </c>
       <c r="T17">
-        <v>0.0420426897202368</v>
+        <v>0.02540551077656025</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H18">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I18">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J18">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N18">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O18">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P18">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q18">
-        <v>1505.517888588542</v>
+        <v>4504.744884095039</v>
       </c>
       <c r="R18">
-        <v>13549.66099729688</v>
+        <v>40542.70395685535</v>
       </c>
       <c r="S18">
-        <v>0.02313045653228098</v>
+        <v>0.08552272864576432</v>
       </c>
       <c r="T18">
-        <v>0.02490510883611477</v>
+        <v>0.0923610208142871</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H19">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I19">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J19">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N19">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O19">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P19">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q19">
-        <v>5994.544815015626</v>
+        <v>1495.990129908352</v>
       </c>
       <c r="R19">
-        <v>53950.90333514063</v>
+        <v>13463.91116917517</v>
       </c>
       <c r="S19">
-        <v>0.09209891116240609</v>
+        <v>0.02840142144089384</v>
       </c>
       <c r="T19">
-        <v>0.099165072811522</v>
+        <v>0.03067236415857335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H20">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I20">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J20">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N20">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O20">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P20">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q20">
-        <v>22.21002028773</v>
+        <v>32.84241056123125</v>
       </c>
       <c r="R20">
-        <v>88.84008115092</v>
+        <v>131.369642244925</v>
       </c>
       <c r="S20">
-        <v>0.0003412300263851726</v>
+        <v>0.000623514236381717</v>
       </c>
       <c r="T20">
-        <v>0.0001632935237652317</v>
+        <v>0.0002992754078430758</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H21">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I21">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J21">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.99588</v>
       </c>
       <c r="O21">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P21">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q21">
-        <v>125.77185063972</v>
+        <v>69.8738417783</v>
       </c>
       <c r="R21">
-        <v>754.63110383832</v>
+        <v>419.2430506698</v>
       </c>
       <c r="S21">
-        <v>0.001932331954510342</v>
+        <v>0.001326557166631447</v>
       </c>
       <c r="T21">
-        <v>0.001387058301750883</v>
+        <v>0.0009550846971224567</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H22">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I22">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J22">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N22">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O22">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P22">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q22">
-        <v>64.2883561686</v>
+        <v>82.17736379646502</v>
       </c>
       <c r="R22">
-        <v>385.7301370116</v>
+        <v>493.06418277879</v>
       </c>
       <c r="S22">
-        <v>0.0009877126264396072</v>
+        <v>0.001560139933695978</v>
       </c>
       <c r="T22">
-        <v>0.0007089956749146611</v>
+        <v>0.001123257868958959</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H23">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I23">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J23">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N23">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O23">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P23">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q23">
-        <v>53.421555434643</v>
+        <v>43.44249607541376</v>
       </c>
       <c r="R23">
-        <v>213.686221738572</v>
+        <v>173.769984301655</v>
       </c>
       <c r="S23">
-        <v>0.0008207574119403612</v>
+        <v>0.0008247572058231361</v>
       </c>
       <c r="T23">
-        <v>0.000392768395477864</v>
+        <v>0.0003958683454873435</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H24">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I24">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J24">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N24">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O24">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P24">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q24">
-        <v>21.097122332049</v>
+        <v>105.2893161523</v>
       </c>
       <c r="R24">
-        <v>126.582733992294</v>
+        <v>631.7358969138</v>
       </c>
       <c r="S24">
-        <v>0.000324131698969829</v>
+        <v>0.001998921103475583</v>
       </c>
       <c r="T24">
-        <v>0.000232666837013854</v>
+        <v>0.001439168250496568</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H25">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I25">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J25">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N25">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O25">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P25">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q25">
-        <v>84.00275164176301</v>
+        <v>34.96574873857333</v>
       </c>
       <c r="R25">
-        <v>504.0165098505781</v>
+        <v>209.79449243144</v>
       </c>
       <c r="S25">
-        <v>0.001290600404132975</v>
+        <v>0.0006638258809778789</v>
       </c>
       <c r="T25">
-        <v>0.0009264132907481277</v>
+        <v>0.0004779363878345023</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H26">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I26">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J26">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N26">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O26">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P26">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q26">
-        <v>18.68140917368</v>
+        <v>426.1746629543692</v>
       </c>
       <c r="R26">
-        <v>112.08845504208</v>
+        <v>2557.047977726215</v>
       </c>
       <c r="S26">
-        <v>0.0002870171959621637</v>
+        <v>0.008090939885238044</v>
       </c>
       <c r="T26">
-        <v>0.0002060254623825549</v>
+        <v>0.005825254323076977</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H27">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I27">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J27">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.99588</v>
       </c>
       <c r="O27">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P27">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q27">
-        <v>105.7898810488533</v>
+        <v>906.7075303036935</v>
       </c>
       <c r="R27">
-        <v>952.10892943968</v>
+        <v>8160.367772733241</v>
       </c>
       <c r="S27">
-        <v>0.00162533322500058</v>
+        <v>0.01721387205500135</v>
       </c>
       <c r="T27">
-        <v>0.001750034669964253</v>
+        <v>0.01859027208722248</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H28">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I28">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J28">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N28">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O28">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P28">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q28">
-        <v>54.07456054204444</v>
+        <v>1066.362356476312</v>
       </c>
       <c r="R28">
-        <v>486.6710448784</v>
+        <v>9597.261208286804</v>
       </c>
       <c r="S28">
-        <v>0.0008307900434797098</v>
+        <v>0.02024492414053815</v>
       </c>
       <c r="T28">
-        <v>0.0008945312611511296</v>
+        <v>0.02186368336857918</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H29">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I29">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J29">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N29">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O29">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P29">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q29">
-        <v>44.93421990795466</v>
+        <v>563.725098324265</v>
       </c>
       <c r="R29">
-        <v>269.605319447728</v>
+        <v>3382.350589945589</v>
       </c>
       <c r="S29">
-        <v>0.0006903597946400453</v>
+        <v>0.01070233938996484</v>
       </c>
       <c r="T29">
-        <v>0.0004955511303921694</v>
+        <v>0.007705390187384325</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H30">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I30">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J30">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N30">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O30">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P30">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q30">
-        <v>17.74532258711734</v>
+        <v>1366.271173677827</v>
       </c>
       <c r="R30">
-        <v>159.707903284056</v>
+        <v>12296.44056310044</v>
       </c>
       <c r="S30">
-        <v>0.000272635360804271</v>
+        <v>0.02593870282322374</v>
       </c>
       <c r="T30">
-        <v>0.0002935529319936946</v>
+        <v>0.02801272958998402</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H31">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I31">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J31">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N31">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O31">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P31">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q31">
-        <v>70.65683663520801</v>
+        <v>453.7278454584302</v>
       </c>
       <c r="R31">
-        <v>635.9115297168721</v>
+        <v>4083.550609125872</v>
       </c>
       <c r="S31">
-        <v>0.001085556605396018</v>
+        <v>0.008614037954330011</v>
       </c>
       <c r="T31">
-        <v>0.001168844435362513</v>
+        <v>0.009302805831772735</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H32">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I32">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J32">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N32">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O32">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P32">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q32">
-        <v>2251.45609137966</v>
+        <v>2778.532459774352</v>
       </c>
       <c r="R32">
-        <v>13508.73654827796</v>
+        <v>16671.19475864611</v>
       </c>
       <c r="S32">
-        <v>0.03459089237712085</v>
+        <v>0.05275052943169435</v>
       </c>
       <c r="T32">
-        <v>0.02482988718613567</v>
+        <v>0.03797893124595081</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H33">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I33">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J33">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>9.99588</v>
       </c>
       <c r="O33">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P33">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q33">
-        <v>12749.64162924824</v>
+        <v>5911.464297304773</v>
       </c>
       <c r="R33">
-        <v>114746.7746632342</v>
+        <v>53203.17867574295</v>
       </c>
       <c r="S33">
-        <v>0.195882781428766</v>
+        <v>0.1122293426166093</v>
       </c>
       <c r="T33">
-        <v>0.21091161706194</v>
+        <v>0.1212030627825365</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H34">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I34">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J34">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N34">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O34">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P34">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q34">
-        <v>6516.986892647868</v>
+        <v>6952.366433074745</v>
       </c>
       <c r="R34">
-        <v>58652.8820338308</v>
+        <v>62571.2978976727</v>
       </c>
       <c r="S34">
-        <v>0.100125600090451</v>
+        <v>0.1319909036360931</v>
       </c>
       <c r="T34">
-        <v>0.1078075983521487</v>
+        <v>0.1425447339095574</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H35">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I35">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J35">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N35">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O35">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P35">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q35">
-        <v>5415.406417289506</v>
+        <v>3675.320520523685</v>
       </c>
       <c r="R35">
-        <v>32492.43850373704</v>
+        <v>22051.9231231421</v>
       </c>
       <c r="S35">
-        <v>0.08320115203492226</v>
+        <v>0.06977608003346475</v>
       </c>
       <c r="T35">
-        <v>0.05972309694299923</v>
+        <v>0.0502368597007994</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H36">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I36">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J36">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N36">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O36">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P36">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q36">
-        <v>2138.640306029558</v>
+        <v>8907.683011001307</v>
       </c>
       <c r="R36">
-        <v>19247.76275426602</v>
+        <v>80169.14709901175</v>
       </c>
       <c r="S36">
-        <v>0.03285761465323932</v>
+        <v>0.1691126526836358</v>
       </c>
       <c r="T36">
-        <v>0.03537856971789509</v>
+        <v>0.1826346923420593</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H37">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I37">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J37">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N37">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O37">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P37">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q37">
-        <v>8515.458537468548</v>
+        <v>2958.171041352387</v>
       </c>
       <c r="R37">
-        <v>76639.12683721693</v>
+        <v>26623.53937217149</v>
       </c>
       <c r="S37">
-        <v>0.1308296932546035</v>
+        <v>0.05616097376581221</v>
       </c>
       <c r="T37">
-        <v>0.1408674206215546</v>
+        <v>0.06065153613631474</v>
       </c>
     </row>
   </sheetData>
